--- a/Fase 2/Evidencias Proyecto/Sprint 2/Impediment log 2.xlsx
+++ b/Fase 2/Evidencias Proyecto/Sprint 2/Impediment log 2.xlsx
@@ -414,7 +414,7 @@
     </row>
     <row r="4">
       <c r="A4" s="3">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="B4" s="4">
         <v>45575.0</v>
@@ -443,7 +443,7 @@
     </row>
     <row r="5">
       <c r="A5" s="3">
-        <v>5.0</v>
+        <v>2.0</v>
       </c>
       <c r="B5" s="4">
         <v>45582.0</v>
@@ -472,7 +472,7 @@
     </row>
     <row r="6">
       <c r="A6" s="5">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="B6" s="6">
         <v>45584.0</v>
